--- a/data.xlsx
+++ b/data.xlsx
@@ -1,15 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView windowWidth="23040" windowHeight="9000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -28,117 +41,246 @@
     <t>Milo lớn</t>
   </si>
   <si>
+    <t>Sữa</t>
+  </si>
+  <si>
+    <t>28K/325</t>
+  </si>
+  <si>
     <t>TH lớn</t>
   </si>
   <si>
+    <t>33K/305</t>
+  </si>
+  <si>
     <t>TH nhỏ</t>
   </si>
   <si>
+    <t>21K/245</t>
+  </si>
+  <si>
     <t>Bò lớn</t>
   </si>
   <si>
+    <t>28k/325</t>
+  </si>
+  <si>
     <t>Bò nhỏ</t>
   </si>
   <si>
+    <t>19k/220</t>
+  </si>
+  <si>
     <t>Đậu nành hộp</t>
   </si>
   <si>
+    <t>26k</t>
+  </si>
+  <si>
     <t>Đậu nành bịch</t>
   </si>
   <si>
+    <t>4k</t>
+  </si>
+  <si>
     <t>Vinamilk bịch</t>
   </si>
   <si>
+    <t>7k/320</t>
+  </si>
+  <si>
     <t>Sữa chua trắng</t>
   </si>
   <si>
+    <t>Sữa chua</t>
+  </si>
+  <si>
+    <t>22k/4 hộp</t>
+  </si>
+  <si>
     <t>Sữa chua nha đam</t>
   </si>
   <si>
     <t>Sữa đặc Phương Nam lon</t>
   </si>
   <si>
+    <t>Sữa đặc</t>
+  </si>
+  <si>
+    <t>20k</t>
+  </si>
+  <si>
     <t>Sữa đặc Phương Nam giấy nhỏ</t>
   </si>
   <si>
     <t>Sữa đặc Phương Nam giấy lớn</t>
   </si>
   <si>
+    <t>61k</t>
+  </si>
+  <si>
     <t>Nhất ca</t>
   </si>
   <si>
+    <t>Nước mắm</t>
+  </si>
+  <si>
+    <t>19k</t>
+  </si>
+  <si>
     <t>Hương Việt</t>
   </si>
   <si>
+    <t>135k</t>
+  </si>
+  <si>
     <t>Hưng Thịnh</t>
   </si>
   <si>
+    <t>Nước tương + Mắm</t>
+  </si>
+  <si>
+    <t>65K</t>
+  </si>
+  <si>
     <t>A2 nhỏ</t>
   </si>
   <si>
+    <t>22K</t>
+  </si>
+  <si>
     <t>Nam ngư</t>
   </si>
   <si>
-    <t>Tường magi</t>
+    <t>53K</t>
+  </si>
+  <si>
+    <t>Tương magi</t>
+  </si>
+  <si>
+    <t>35K</t>
   </si>
   <si>
     <t>Bae O</t>
   </si>
   <si>
+    <t>Bánh</t>
+  </si>
+  <si>
+    <t>9K</t>
+  </si>
+  <si>
     <t>Bae II</t>
   </si>
   <si>
+    <t>8K</t>
+  </si>
+  <si>
     <t>Cosy</t>
   </si>
   <si>
+    <t>3K</t>
+  </si>
+  <si>
     <t>Oishi lớn</t>
   </si>
   <si>
     <t>Oishi nhỏ</t>
   </si>
   <si>
+    <t>5K</t>
+  </si>
+  <si>
     <t>Bún khô</t>
   </si>
   <si>
+    <t>Mì</t>
+  </si>
+  <si>
+    <t>12K</t>
+  </si>
+  <si>
     <t>Hủ tiếu</t>
   </si>
   <si>
+    <t>6.5K</t>
+  </si>
+  <si>
     <t>Miến</t>
   </si>
   <si>
+    <t>11K</t>
+  </si>
+  <si>
     <t>Omachi</t>
   </si>
   <si>
+    <t>7.5K</t>
+  </si>
+  <si>
     <t>Mì giấy</t>
   </si>
   <si>
+    <t>3.5K</t>
+  </si>
+  <si>
     <t>Hảo Hảo</t>
   </si>
   <si>
-    <t>Mì Lý</t>
+    <t>4.5K / 42K/10 gói</t>
+  </si>
+  <si>
+    <t>Mì Ly</t>
   </si>
   <si>
     <t>Gấu đỏ</t>
   </si>
   <si>
+    <t>3K / 28K/10 gói</t>
+  </si>
+  <si>
     <t>Mì ký</t>
   </si>
   <si>
+    <t>30K</t>
+  </si>
+  <si>
     <t>Đường ký</t>
   </si>
   <si>
+    <t>Đường</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
     <t>Đường trắng cây</t>
   </si>
   <si>
+    <t>235k</t>
+  </si>
+  <si>
     <t>Đường vàng cây</t>
   </si>
   <si>
+    <t>248k</t>
+  </si>
+  <si>
     <t>Đường phèn</t>
   </si>
   <si>
+    <t>27k</t>
+  </si>
+  <si>
     <t>Muối sấy</t>
   </si>
   <si>
+    <t>Muối</t>
+  </si>
+  <si>
+    <t>6k</t>
+  </si>
+  <si>
     <t>Muối hạt</t>
   </si>
   <si>
@@ -148,78 +290,153 @@
     <t>Đường thốt nốt</t>
   </si>
   <si>
-    <t>Biển Hòa</t>
+    <t>28k</t>
+  </si>
+  <si>
+    <t>Biên Hòa</t>
   </si>
   <si>
     <t>Chiên giòn Tài Ký</t>
   </si>
   <si>
+    <t>Bột chiên</t>
+  </si>
+  <si>
+    <t>9k</t>
+  </si>
+  <si>
     <t>Chiên giòn Quick</t>
   </si>
   <si>
-    <t>Tẩm khôai</t>
+    <t>8k</t>
+  </si>
+  <si>
+    <t>Tẩm khoai</t>
   </si>
   <si>
     <t>Cá 360</t>
   </si>
   <si>
+    <t>Cá hộp</t>
+  </si>
+  <si>
+    <t>15.5k/150k/lốc</t>
+  </si>
+  <si>
     <t>Mezan 1 lít</t>
   </si>
   <si>
+    <t>Dầu ăn</t>
+  </si>
+  <si>
+    <t>63k</t>
+  </si>
+  <si>
     <t>Dầu 5 lít</t>
   </si>
   <si>
+    <t>163k</t>
+  </si>
+  <si>
     <t>Nành 1 lít</t>
   </si>
   <si>
+    <t>54k</t>
+  </si>
+  <si>
     <t>Nành 2 lít</t>
   </si>
   <si>
+    <t>108k</t>
+  </si>
+  <si>
     <t>Sữa 500ml - không lạnh</t>
   </si>
   <si>
+    <t>nước ngọt</t>
+  </si>
+  <si>
+    <t>4k/lốc</t>
+  </si>
+  <si>
     <t>Sữa 500ml - lạnh</t>
   </si>
   <si>
+    <t>5k/lốc - 86k/thùng</t>
+  </si>
+  <si>
     <t>Sữa 1 lít</t>
   </si>
   <si>
+    <t>9k - 95k/thùng</t>
+  </si>
+  <si>
     <t>Sữa 5 lít</t>
   </si>
   <si>
+    <t>25k</t>
+  </si>
+  <si>
     <t>C2</t>
   </si>
   <si>
+    <t>44k/lốc - 173k/thùng</t>
+  </si>
+  <si>
     <t>O độ</t>
   </si>
   <si>
     <t>Sting chai</t>
   </si>
   <si>
+    <t>46k/lốc - 177k/thùng</t>
+  </si>
+  <si>
     <t>Sting lon</t>
   </si>
   <si>
+    <t>46k/lốc</t>
+  </si>
+  <si>
     <t>Coca lon</t>
   </si>
   <si>
+    <t>43k/lốc</t>
+  </si>
+  <si>
     <t>247</t>
   </si>
   <si>
+    <t>47k/lốc</t>
+  </si>
+  <si>
     <t>Bò thái</t>
   </si>
   <si>
+    <t>70k/lốc</t>
+  </si>
+  <si>
     <t>Pepsi sữa TC</t>
   </si>
   <si>
+    <t>8k - 143k/lốc</t>
+  </si>
+  <si>
     <t>Number one</t>
   </si>
   <si>
     <t>Pepsi lon</t>
   </si>
   <si>
+    <t>42k/lốc</t>
+  </si>
+  <si>
     <t>Sting lựu quất</t>
   </si>
   <si>
+    <t>48k/lốc</t>
+  </si>
+  <si>
     <t>Ô long</t>
   </si>
   <si>
@@ -229,60 +446,126 @@
     <t>Mirinda thường chai</t>
   </si>
   <si>
+    <t>35k/lốc</t>
+  </si>
+  <si>
+    <t>55k/lốc</t>
+  </si>
+  <si>
     <t>Sài gòn xanh</t>
   </si>
   <si>
+    <t>bia</t>
+  </si>
+  <si>
+    <t>11k nóng, 12k lạnh</t>
+  </si>
+  <si>
     <t>Tiger bạc</t>
   </si>
   <si>
+    <t>388k / thùng</t>
+  </si>
+  <si>
     <t>Én vàng &lt;</t>
   </si>
   <si>
+    <t>Trà + Café</t>
+  </si>
+  <si>
+    <t>10k / 152k/lốc</t>
+  </si>
+  <si>
     <t>Én vàng 7</t>
   </si>
   <si>
+    <t>40k</t>
+  </si>
+  <si>
     <t>Chữ I</t>
   </si>
   <si>
+    <t>83k</t>
+  </si>
+  <si>
     <t>Số 1</t>
   </si>
   <si>
+    <t>84k</t>
+  </si>
+  <si>
     <t>Phố</t>
   </si>
   <si>
+    <t>130k</t>
+  </si>
+  <si>
     <t>Việt</t>
   </si>
   <si>
+    <t>120k</t>
+  </si>
+  <si>
     <t>G7</t>
   </si>
   <si>
+    <t>153k</t>
+  </si>
+  <si>
     <t>Mèo &gt; 2h</t>
   </si>
   <si>
+    <t>Thuốc</t>
+  </si>
+  <si>
+    <t>225k</t>
+  </si>
+  <si>
     <t>Sài gòn bạc</t>
   </si>
   <si>
+    <t>188k</t>
+  </si>
+  <si>
     <t>Zet</t>
   </si>
   <si>
     <t>Thăng Long</t>
   </si>
   <si>
+    <t>14k</t>
+  </si>
+  <si>
     <t xml:space="preserve">Số bạc </t>
   </si>
   <si>
+    <t>24k - 233k/cây</t>
+  </si>
+  <si>
     <t>Số xanh</t>
   </si>
   <si>
+    <t>35k - 335k/cây</t>
+  </si>
+  <si>
     <t>Mèo mi</t>
   </si>
   <si>
+    <t>15k - 142k/cây</t>
+  </si>
+  <si>
     <t>Bastos</t>
   </si>
   <si>
+    <t>92k</t>
+  </si>
+  <si>
     <t>Sài gòn vàng</t>
   </si>
   <si>
+    <t>14k - 126k</t>
+  </si>
+  <si>
     <t>R</t>
   </si>
   <si>
@@ -292,90 +575,168 @@
     <t>Số vàng</t>
   </si>
   <si>
+    <t>16k</t>
+  </si>
+  <si>
     <t>Sài gòn dưa lưới</t>
   </si>
   <si>
+    <t>17k</t>
+  </si>
+  <si>
     <t>Omo nước</t>
   </si>
   <si>
+    <t>Bột giặt + Nước giặt</t>
+  </si>
+  <si>
+    <t>168K</t>
+  </si>
+  <si>
     <t>Omo bột 5.5kg</t>
   </si>
   <si>
+    <t>130K</t>
+  </si>
+  <si>
     <t>Omo bột 3kg</t>
   </si>
   <si>
+    <t>115K</t>
+  </si>
+  <si>
     <t>Omo nhỏ 380g</t>
   </si>
   <si>
+    <t>18K</t>
+  </si>
+  <si>
     <t>Omo 800gr</t>
   </si>
   <si>
+    <t>34K</t>
+  </si>
+  <si>
     <t>Lix bột giặt</t>
   </si>
   <si>
     <t>Lix nước giặt</t>
   </si>
   <si>
+    <t>95K</t>
+  </si>
+  <si>
     <t>Suzy 2kg</t>
   </si>
   <si>
+    <t>48K</t>
+  </si>
+  <si>
     <t>Chai vàng</t>
   </si>
   <si>
+    <t>Rửa chén + Lau nhà</t>
+  </si>
+  <si>
+    <t>25K</t>
+  </si>
+  <si>
     <t>Túi vàng nhỏ</t>
   </si>
   <si>
+    <t>21K</t>
+  </si>
+  <si>
     <t>Túi vàng lớn</t>
   </si>
   <si>
+    <t>72K</t>
+  </si>
+  <si>
     <t>Túi trắng</t>
   </si>
   <si>
     <t>Vim</t>
   </si>
   <si>
+    <t>33K</t>
+  </si>
+  <si>
     <t>Lau nhà</t>
   </si>
   <si>
+    <t>28K</t>
+  </si>
+  <si>
     <t>Tẩy</t>
   </si>
   <si>
     <t>Lifebuoy chai trên</t>
   </si>
   <si>
+    <t>Dầu gội + Sữa tắm</t>
+  </si>
+  <si>
+    <t>127k</t>
+  </si>
+  <si>
     <t>Dưới + sữa tắm mát xa</t>
   </si>
   <si>
+    <t>65k</t>
+  </si>
+  <si>
     <t>Romano vòi</t>
   </si>
   <si>
+    <t>115k</t>
+  </si>
+  <si>
     <t>Clear 900</t>
   </si>
   <si>
+    <t>160k</t>
+  </si>
+  <si>
     <t>Clear lọc 4</t>
   </si>
   <si>
     <t>Dove 900</t>
   </si>
   <si>
+    <t>150k</t>
+  </si>
+  <si>
     <t>Dove lọc 4</t>
   </si>
   <si>
+    <t>215k</t>
+  </si>
+  <si>
     <t>Rejo 900</t>
   </si>
   <si>
     <t>Rejo lọc 2</t>
   </si>
   <si>
+    <t>195k</t>
+  </si>
+  <si>
     <t>Head 900</t>
   </si>
   <si>
     <t>Head lọc 2</t>
   </si>
   <si>
+    <t>220k</t>
+  </si>
+  <si>
     <t>Pantene 900</t>
   </si>
   <si>
+    <t>155k</t>
+  </si>
+  <si>
     <t>Pantene lọc 2</t>
   </si>
   <si>
@@ -385,21 +746,36 @@
     <t>Silk lọc 4</t>
   </si>
   <si>
+    <t>190k</t>
+  </si>
+  <si>
     <t>Xả Thái</t>
   </si>
   <si>
+    <t>Dầu xả</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
     <t>Comfort</t>
   </si>
   <si>
     <t>Romano + Xmen</t>
   </si>
   <si>
+    <t>10k</t>
+  </si>
+  <si>
     <t>Head</t>
   </si>
   <si>
     <t>Pantene</t>
   </si>
   <si>
+    <t>12k</t>
+  </si>
+  <si>
     <t>Clear</t>
   </si>
   <si>
@@ -412,21 +788,45 @@
     <t>Rejoice</t>
   </si>
   <si>
+    <t>Xả túi</t>
+  </si>
+  <si>
+    <t>170k</t>
+  </si>
+  <si>
+    <t>125k</t>
+  </si>
+  <si>
     <t>PS&gt;</t>
   </si>
   <si>
+    <t>Kem đánh răng</t>
+  </si>
+  <si>
+    <t>23k</t>
+  </si>
+  <si>
     <t>Close Up</t>
   </si>
   <si>
+    <t>37k</t>
+  </si>
+  <si>
     <t>Colgate chanh</t>
   </si>
   <si>
     <t>Colgate KM</t>
   </si>
   <si>
+    <t>32k</t>
+  </si>
+  <si>
     <t>Hằng ngày</t>
   </si>
   <si>
+    <t>Băng vệ sinh</t>
+  </si>
+  <si>
     <t>Kotex</t>
   </si>
   <si>
@@ -434,405 +834,24 @@
   </si>
   <si>
     <t>Diana</t>
-  </si>
-  <si>
-    <t>Sữa</t>
-  </si>
-  <si>
-    <t>Sữa chua</t>
-  </si>
-  <si>
-    <t>Sữa đặc</t>
-  </si>
-  <si>
-    <t>Nước mắm</t>
-  </si>
-  <si>
-    <t>Nước tương + Mắm</t>
-  </si>
-  <si>
-    <t>Bánh</t>
-  </si>
-  <si>
-    <t>Mì</t>
-  </si>
-  <si>
-    <t>Đường</t>
-  </si>
-  <si>
-    <t>Muối</t>
-  </si>
-  <si>
-    <t>Bột chiên</t>
-  </si>
-  <si>
-    <t>Cá hộp</t>
-  </si>
-  <si>
-    <t>Dầu ăn</t>
-  </si>
-  <si>
-    <t>nước ngọt</t>
-  </si>
-  <si>
-    <t>bia</t>
-  </si>
-  <si>
-    <t>Trà + Café</t>
-  </si>
-  <si>
-    <t>Thuốc</t>
-  </si>
-  <si>
-    <t>Bột giặt + Nước giặt</t>
-  </si>
-  <si>
-    <t>Rửa chén + Lau nhà</t>
-  </si>
-  <si>
-    <t>Dầu gội + Sữa tắm</t>
-  </si>
-  <si>
-    <t>Dầu xả</t>
-  </si>
-  <si>
-    <t>Xả túi</t>
-  </si>
-  <si>
-    <t>Kem đánh răng</t>
-  </si>
-  <si>
-    <t>Băng vệ sinh</t>
-  </si>
-  <si>
-    <t>28K/325</t>
-  </si>
-  <si>
-    <t>33K/305</t>
-  </si>
-  <si>
-    <t>21K/245</t>
-  </si>
-  <si>
-    <t>28k/325</t>
-  </si>
-  <si>
-    <t>19k/220</t>
-  </si>
-  <si>
-    <t>26k</t>
-  </si>
-  <si>
-    <t>4k</t>
-  </si>
-  <si>
-    <t>7k/320</t>
-  </si>
-  <si>
-    <t>22k/4 hộp</t>
-  </si>
-  <si>
-    <t>20k</t>
-  </si>
-  <si>
-    <t>61k</t>
-  </si>
-  <si>
-    <t>19k</t>
-  </si>
-  <si>
-    <t>135k</t>
-  </si>
-  <si>
-    <t>65K</t>
-  </si>
-  <si>
-    <t>22K</t>
-  </si>
-  <si>
-    <t>53K</t>
-  </si>
-  <si>
-    <t>35K</t>
-  </si>
-  <si>
-    <t>9K</t>
-  </si>
-  <si>
-    <t>8K</t>
-  </si>
-  <si>
-    <t>3K</t>
-  </si>
-  <si>
-    <t>5K</t>
-  </si>
-  <si>
-    <t>12K</t>
-  </si>
-  <si>
-    <t>6.5K</t>
-  </si>
-  <si>
-    <t>11K</t>
-  </si>
-  <si>
-    <t>7.5K</t>
-  </si>
-  <si>
-    <t>3.5K</t>
-  </si>
-  <si>
-    <t>4.5K / 42K/10 gói</t>
-  </si>
-  <si>
-    <t>3K / 28K/10 gói</t>
-  </si>
-  <si>
-    <t>30K</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>235k</t>
-  </si>
-  <si>
-    <t>248k</t>
-  </si>
-  <si>
-    <t>27k</t>
-  </si>
-  <si>
-    <t>6k</t>
-  </si>
-  <si>
-    <t>28k</t>
-  </si>
-  <si>
-    <t>9k</t>
-  </si>
-  <si>
-    <t>8k</t>
-  </si>
-  <si>
-    <t>15.5k/150k/lốc</t>
-  </si>
-  <si>
-    <t>63k</t>
-  </si>
-  <si>
-    <t>163k</t>
-  </si>
-  <si>
-    <t>54k</t>
-  </si>
-  <si>
-    <t>108k</t>
-  </si>
-  <si>
-    <t>4k/lốc</t>
-  </si>
-  <si>
-    <t>5k/lốc - 86k/thùng</t>
-  </si>
-  <si>
-    <t>9k - 95k/thùng</t>
-  </si>
-  <si>
-    <t>25k</t>
-  </si>
-  <si>
-    <t>44k/lốc - 173k/thùng</t>
-  </si>
-  <si>
-    <t>46k/lốc - 177k/thùng</t>
-  </si>
-  <si>
-    <t>46k/lốc</t>
-  </si>
-  <si>
-    <t>43k/lốc</t>
-  </si>
-  <si>
-    <t>47k/lốc</t>
-  </si>
-  <si>
-    <t>70k/lốc</t>
-  </si>
-  <si>
-    <t>8k - 143k/lốc</t>
-  </si>
-  <si>
-    <t>42k/lốc</t>
-  </si>
-  <si>
-    <t>48k/lốc</t>
-  </si>
-  <si>
-    <t>35k/lốc</t>
-  </si>
-  <si>
-    <t>55k/lốc</t>
-  </si>
-  <si>
-    <t>11k nóng, 12k lạnh</t>
-  </si>
-  <si>
-    <t>388k / thùng</t>
-  </si>
-  <si>
-    <t>10k / 152k/lốc</t>
-  </si>
-  <si>
-    <t>40k</t>
-  </si>
-  <si>
-    <t>83k</t>
-  </si>
-  <si>
-    <t>84k</t>
-  </si>
-  <si>
-    <t>130k</t>
-  </si>
-  <si>
-    <t>120k</t>
-  </si>
-  <si>
-    <t>153k</t>
-  </si>
-  <si>
-    <t>225k</t>
-  </si>
-  <si>
-    <t>188k</t>
-  </si>
-  <si>
-    <t>14k</t>
-  </si>
-  <si>
-    <t>24k - 233k/cây</t>
-  </si>
-  <si>
-    <t>35k - 335k/cây</t>
-  </si>
-  <si>
-    <t>15k - 142k/cây</t>
-  </si>
-  <si>
-    <t>92k</t>
-  </si>
-  <si>
-    <t>14k - 126k</t>
-  </si>
-  <si>
-    <t>16k</t>
-  </si>
-  <si>
-    <t>17k</t>
-  </si>
-  <si>
-    <t>168K</t>
-  </si>
-  <si>
-    <t>130K</t>
-  </si>
-  <si>
-    <t>115K</t>
-  </si>
-  <si>
-    <t>18K</t>
-  </si>
-  <si>
-    <t>34K</t>
-  </si>
-  <si>
-    <t>95K</t>
-  </si>
-  <si>
-    <t>48K</t>
-  </si>
-  <si>
-    <t>25K</t>
-  </si>
-  <si>
-    <t>21K</t>
-  </si>
-  <si>
-    <t>72K</t>
-  </si>
-  <si>
-    <t>33K</t>
-  </si>
-  <si>
-    <t>28K</t>
-  </si>
-  <si>
-    <t>127k</t>
-  </si>
-  <si>
-    <t>65k</t>
-  </si>
-  <si>
-    <t>115k</t>
-  </si>
-  <si>
-    <t>160k</t>
-  </si>
-  <si>
-    <t>150k</t>
-  </si>
-  <si>
-    <t>215k</t>
-  </si>
-  <si>
-    <t>195k</t>
-  </si>
-  <si>
-    <t>220k</t>
-  </si>
-  <si>
-    <t>155k</t>
-  </si>
-  <si>
-    <t>190k</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>12k</t>
-  </si>
-  <si>
-    <t>170k</t>
-  </si>
-  <si>
-    <t>125k</t>
-  </si>
-  <si>
-    <t>23k</t>
-  </si>
-  <si>
-    <t>37k</t>
-  </si>
-  <si>
-    <t>32k</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -840,19 +859,356 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
-      <family val="2"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -875,9 +1231,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -885,12 +1483,71 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Currency" xfId="2" builtinId="4"/>
+    <cellStyle name="Percent" xfId="3" builtinId="5"/>
+    <cellStyle name="Comma [0]" xfId="4" builtinId="6"/>
+    <cellStyle name="Currency [0]" xfId="5" builtinId="7"/>
+    <cellStyle name="Hyperlink" xfId="6" builtinId="8"/>
+    <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9"/>
+    <cellStyle name="Note" xfId="8" builtinId="10"/>
+    <cellStyle name="Warning Text" xfId="9" builtinId="11"/>
+    <cellStyle name="Title" xfId="10" builtinId="15"/>
+    <cellStyle name="CExplanatory Text" xfId="11" builtinId="53"/>
+    <cellStyle name="Heading 1" xfId="12" builtinId="16"/>
+    <cellStyle name="Heading 2" xfId="13" builtinId="17"/>
+    <cellStyle name="Heading 3" xfId="14" builtinId="18"/>
+    <cellStyle name="Heading 4" xfId="15" builtinId="19"/>
+    <cellStyle name="Input" xfId="16" builtinId="20"/>
+    <cellStyle name="Output" xfId="17" builtinId="21"/>
+    <cellStyle name="Calculation" xfId="18" builtinId="22"/>
+    <cellStyle name="Check Cell" xfId="19" builtinId="23"/>
+    <cellStyle name="Linked Cell" xfId="20" builtinId="24"/>
+    <cellStyle name="Total" xfId="21" builtinId="25"/>
+    <cellStyle name="Good" xfId="22" builtinId="26"/>
+    <cellStyle name="Bad" xfId="23" builtinId="27"/>
+    <cellStyle name="Neutral" xfId="24" builtinId="28"/>
+    <cellStyle name="Accent1" xfId="25" builtinId="29"/>
+    <cellStyle name="20% - Accent1" xfId="26" builtinId="30"/>
+    <cellStyle name="40% - Accent1" xfId="27" builtinId="31"/>
+    <cellStyle name="60% - Accent1" xfId="28" builtinId="32"/>
+    <cellStyle name="Accent2" xfId="29" builtinId="33"/>
+    <cellStyle name="20% - Accent2" xfId="30" builtinId="34"/>
+    <cellStyle name="40% - Accent2" xfId="31" builtinId="35"/>
+    <cellStyle name="60% - Accent2" xfId="32" builtinId="36"/>
+    <cellStyle name="Accent3" xfId="33" builtinId="37"/>
+    <cellStyle name="20% - Accent3" xfId="34" builtinId="38"/>
+    <cellStyle name="40% - Accent3" xfId="35" builtinId="39"/>
+    <cellStyle name="60% - Accent3" xfId="36" builtinId="40"/>
+    <cellStyle name="Accent4" xfId="37" builtinId="41"/>
+    <cellStyle name="20% - Accent4" xfId="38" builtinId="42"/>
+    <cellStyle name="40% - Accent4" xfId="39" builtinId="43"/>
+    <cellStyle name="60% - Accent4" xfId="40" builtinId="44"/>
+    <cellStyle name="Accent5" xfId="41" builtinId="45"/>
+    <cellStyle name="20% - Accent5" xfId="42" builtinId="46"/>
+    <cellStyle name="40% - Accent5" xfId="43" builtinId="47"/>
+    <cellStyle name="60% - Accent5" xfId="44" builtinId="48"/>
+    <cellStyle name="Accent6" xfId="45" builtinId="49"/>
+    <cellStyle name="20% - Accent6" xfId="46" builtinId="50"/>
+    <cellStyle name="40% - Accent6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1172,17 +1829,24 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:C141"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
+  <cols>
+    <col min="1" max="1" width="31.0462962962963" customWidth="1"/>
+    <col min="2" max="2" width="25.8981481481481" customWidth="1"/>
+    <col min="3" max="3" width="14.6203703703704" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
@@ -1200,1542 +1864,1543 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="C2" t="s">
-        <v>163</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" t="s">
         <v>4</v>
       </c>
-      <c r="B3" t="s">
-        <v>140</v>
-      </c>
       <c r="C3" t="s">
-        <v>164</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>165</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="C5" t="s">
-        <v>166</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="C6" t="s">
-        <v>167</v>
+        <v>13</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>168</v>
+        <v>15</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="B8" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>140</v>
+        <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>170</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B10" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>21</v>
       </c>
       <c r="C11" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B12" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="C13" t="s">
-        <v>172</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>28</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="C15" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B16" t="s">
-        <v>143</v>
+        <v>31</v>
       </c>
       <c r="C16" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="B17" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C17" t="s">
-        <v>176</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="B18" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C18" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>20</v>
+        <v>40</v>
       </c>
       <c r="B19" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C19" t="s">
-        <v>178</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
-        <v>144</v>
+        <v>36</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>43</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="B21" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
-        <v>23</v>
+        <v>47</v>
       </c>
       <c r="B22" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="B23" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>51</v>
       </c>
       <c r="B24" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C24" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>26</v>
+        <v>52</v>
       </c>
       <c r="B25" t="s">
-        <v>145</v>
+        <v>45</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>27</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C26" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="B27" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C27" t="s">
-        <v>185</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>29</v>
+        <v>59</v>
       </c>
       <c r="B28" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C28" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>30</v>
+        <v>61</v>
       </c>
       <c r="B29" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C29" t="s">
-        <v>187</v>
+        <v>62</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>31</v>
+        <v>63</v>
       </c>
       <c r="B30" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C30" t="s">
-        <v>188</v>
+        <v>64</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>32</v>
+        <v>65</v>
       </c>
       <c r="B31" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C31" t="s">
-        <v>189</v>
+        <v>66</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="B32" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C32" t="s">
-        <v>181</v>
+        <v>48</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="B33" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C33" t="s">
-        <v>190</v>
+        <v>69</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>35</v>
+        <v>70</v>
       </c>
       <c r="B34" t="s">
-        <v>146</v>
+        <v>55</v>
       </c>
       <c r="C34" t="s">
-        <v>191</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>36</v>
+        <v>72</v>
       </c>
       <c r="B35" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C35" t="s">
-        <v>192</v>
+        <v>74</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
-        <v>37</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C36" t="s">
-        <v>193</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>38</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C37" t="s">
-        <v>194</v>
+        <v>78</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>39</v>
+        <v>79</v>
       </c>
       <c r="B38" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C38" t="s">
-        <v>195</v>
+        <v>80</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>40</v>
+        <v>81</v>
       </c>
       <c r="B39" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C39" t="s">
-        <v>196</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>41</v>
+        <v>84</v>
       </c>
       <c r="B40" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C40" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="B41" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C41" t="s">
-        <v>169</v>
+        <v>17</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>43</v>
+        <v>86</v>
       </c>
       <c r="B42" t="s">
-        <v>147</v>
+        <v>73</v>
       </c>
       <c r="C42" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
       <c r="B43" t="s">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="C43" t="s">
-        <v>197</v>
+        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C44" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="45" spans="1:3">
       <c r="A45" t="s">
-        <v>46</v>
+        <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C45" t="s">
-        <v>199</v>
+        <v>93</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>47</v>
+        <v>94</v>
       </c>
       <c r="B46" t="s">
-        <v>149</v>
+        <v>90</v>
       </c>
       <c r="C46" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
-        <v>48</v>
+        <v>95</v>
       </c>
       <c r="B47" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="C47" t="s">
-        <v>200</v>
+        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
-        <v>49</v>
+        <v>98</v>
       </c>
       <c r="B48" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C48" t="s">
-        <v>201</v>
+        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
-        <v>50</v>
+        <v>101</v>
       </c>
       <c r="B49" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C49" t="s">
-        <v>202</v>
+        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="B50" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C50" t="s">
-        <v>203</v>
+        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
-        <v>52</v>
+        <v>105</v>
       </c>
       <c r="B51" t="s">
-        <v>151</v>
+        <v>99</v>
       </c>
       <c r="C51" t="s">
-        <v>204</v>
+        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
-        <v>53</v>
+        <v>107</v>
       </c>
       <c r="B52" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C52" t="s">
-        <v>205</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>54</v>
+        <v>110</v>
       </c>
       <c r="B53" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C53" t="s">
-        <v>206</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>55</v>
+        <v>112</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C54" t="s">
-        <v>207</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>56</v>
+        <v>114</v>
       </c>
       <c r="B55" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C55" t="s">
-        <v>208</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>116</v>
       </c>
       <c r="B56" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C56" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>58</v>
+        <v>118</v>
       </c>
       <c r="B57" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C57" t="s">
-        <v>209</v>
+        <v>117</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>59</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C58" t="s">
-        <v>210</v>
+        <v>120</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B59" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C59" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>61</v>
+        <v>123</v>
       </c>
       <c r="B60" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C60" t="s">
-        <v>212</v>
+        <v>124</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>62</v>
+        <v>125</v>
       </c>
       <c r="B61" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C61" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>63</v>
+        <v>127</v>
       </c>
       <c r="B62" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C62" t="s">
-        <v>214</v>
+        <v>128</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>64</v>
+        <v>129</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C63" t="s">
-        <v>215</v>
+        <v>130</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>65</v>
+        <v>131</v>
       </c>
       <c r="B64" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C64" t="s">
-        <v>211</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>66</v>
+        <v>132</v>
       </c>
       <c r="B65" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C65" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="B66" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C66" t="s">
-        <v>217</v>
+        <v>135</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>68</v>
+        <v>136</v>
       </c>
       <c r="B67" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>133</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>69</v>
+        <v>137</v>
       </c>
       <c r="B68" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C68" t="s">
-        <v>213</v>
+        <v>126</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>70</v>
+        <v>138</v>
       </c>
       <c r="B69" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C69" t="s">
-        <v>218</v>
+        <v>139</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>60</v>
+        <v>121</v>
       </c>
       <c r="B70" t="s">
-        <v>152</v>
+        <v>108</v>
       </c>
       <c r="C70" t="s">
-        <v>219</v>
+        <v>140</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
-        <v>71</v>
+        <v>141</v>
       </c>
       <c r="B71" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C71" t="s">
-        <v>220</v>
+        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
-        <v>72</v>
+        <v>144</v>
       </c>
       <c r="B72" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="C72" t="s">
-        <v>221</v>
+        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="B73" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C73" t="s">
-        <v>222</v>
+        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
-        <v>74</v>
+        <v>149</v>
       </c>
       <c r="B74" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C74" t="s">
-        <v>223</v>
+        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
-        <v>75</v>
+        <v>151</v>
       </c>
       <c r="B75" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C75" t="s">
-        <v>224</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
-        <v>76</v>
+        <v>153</v>
       </c>
       <c r="B76" t="s">
+        <v>147</v>
+      </c>
+      <c r="C76" t="s">
         <v>154</v>
-      </c>
-      <c r="C76" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
-        <v>77</v>
+        <v>155</v>
       </c>
       <c r="B77" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C77" t="s">
-        <v>226</v>
+        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
-        <v>78</v>
+        <v>157</v>
       </c>
       <c r="B78" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C78" t="s">
-        <v>227</v>
+        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
-        <v>79</v>
+        <v>159</v>
       </c>
       <c r="B79" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C79" t="s">
-        <v>228</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
-        <v>80</v>
+        <v>161</v>
       </c>
       <c r="B80" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C80" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
-        <v>81</v>
+        <v>164</v>
       </c>
       <c r="B81" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C81" t="s">
-        <v>230</v>
+        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
-        <v>82</v>
+        <v>166</v>
       </c>
       <c r="B82" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C82" t="s">
-        <v>177</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" t="s">
-        <v>83</v>
+        <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C83" t="s">
-        <v>231</v>
+        <v>168</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" t="s">
-        <v>84</v>
+        <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C84" t="s">
-        <v>232</v>
+        <v>170</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" t="s">
-        <v>85</v>
+        <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C85" t="s">
-        <v>233</v>
+        <v>172</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" t="s">
-        <v>86</v>
+        <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C86" t="s">
-        <v>234</v>
+        <v>174</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" t="s">
-        <v>87</v>
+        <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C87" t="s">
-        <v>235</v>
+        <v>176</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" t="s">
-        <v>88</v>
+        <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>178</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" t="s">
-        <v>89</v>
+        <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C89" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" t="s">
-        <v>90</v>
+        <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C90" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" t="s">
-        <v>91</v>
+        <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C91" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" t="s">
-        <v>92</v>
+        <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="C92" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="B93" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C93" t="s">
-        <v>239</v>
+        <v>187</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" t="s">
-        <v>94</v>
+        <v>188</v>
       </c>
       <c r="B94" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C94" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" t="s">
-        <v>95</v>
+        <v>190</v>
       </c>
       <c r="B95" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C95" t="s">
-        <v>241</v>
+        <v>191</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" t="s">
-        <v>96</v>
+        <v>192</v>
       </c>
       <c r="B96" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C96" t="s">
-        <v>242</v>
+        <v>193</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" t="s">
-        <v>97</v>
+        <v>194</v>
       </c>
       <c r="B97" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>243</v>
+        <v>195</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>98</v>
+        <v>196</v>
       </c>
       <c r="B98" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C98" t="s">
-        <v>240</v>
+        <v>189</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>99</v>
+        <v>197</v>
       </c>
       <c r="B99" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>244</v>
+        <v>198</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>100</v>
+        <v>199</v>
       </c>
       <c r="B100" t="s">
-        <v>156</v>
+        <v>186</v>
       </c>
       <c r="C100" t="s">
-        <v>245</v>
+        <v>200</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
-        <v>101</v>
+        <v>201</v>
       </c>
       <c r="B101" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C101" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>102</v>
+        <v>204</v>
       </c>
       <c r="B102" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C102" t="s">
-        <v>247</v>
+        <v>205</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>103</v>
+        <v>206</v>
       </c>
       <c r="B103" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C103" t="s">
-        <v>248</v>
+        <v>207</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>104</v>
+        <v>208</v>
       </c>
       <c r="B104" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C104" t="s">
-        <v>246</v>
+        <v>203</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>105</v>
+        <v>209</v>
       </c>
       <c r="B105" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C105" t="s">
-        <v>249</v>
+        <v>210</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>106</v>
+        <v>211</v>
       </c>
       <c r="B106" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C106" t="s">
-        <v>250</v>
+        <v>212</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>107</v>
+        <v>213</v>
       </c>
       <c r="B107" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="C107" t="s">
-        <v>186</v>
+        <v>60</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>108</v>
+        <v>214</v>
       </c>
       <c r="B108" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C108" t="s">
-        <v>251</v>
+        <v>216</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>109</v>
+        <v>217</v>
       </c>
       <c r="B109" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C109" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>110</v>
+        <v>219</v>
       </c>
       <c r="B110" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C110" t="s">
-        <v>253</v>
+        <v>220</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>111</v>
+        <v>221</v>
       </c>
       <c r="B111" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C111" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>112</v>
+        <v>223</v>
       </c>
       <c r="B112" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C112" t="s">
-        <v>229</v>
+        <v>163</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>113</v>
+        <v>224</v>
       </c>
       <c r="B113" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C113" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>114</v>
+        <v>226</v>
       </c>
       <c r="B114" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C114" t="s">
-        <v>256</v>
+        <v>227</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>115</v>
+        <v>228</v>
       </c>
       <c r="B115" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C115" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>116</v>
+        <v>229</v>
       </c>
       <c r="B116" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C116" t="s">
-        <v>257</v>
+        <v>230</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>117</v>
+        <v>231</v>
       </c>
       <c r="B117" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C117" t="s">
-        <v>254</v>
+        <v>222</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>118</v>
+        <v>232</v>
       </c>
       <c r="B118" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C118" t="s">
-        <v>258</v>
+        <v>233</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>119</v>
+        <v>234</v>
       </c>
       <c r="B119" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C119" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>120</v>
+        <v>236</v>
       </c>
       <c r="B120" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C120" t="s">
-        <v>259</v>
+        <v>235</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>121</v>
+        <v>237</v>
       </c>
       <c r="B121" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C121" t="s">
-        <v>175</v>
+        <v>34</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>122</v>
+        <v>238</v>
       </c>
       <c r="B122" t="s">
-        <v>158</v>
+        <v>215</v>
       </c>
       <c r="C122" t="s">
-        <v>260</v>
+        <v>239</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="B123" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C123" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="B124" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C124" t="s">
-        <v>237</v>
+        <v>182</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>125</v>
+        <v>244</v>
       </c>
       <c r="B125" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C125" t="s">
-        <v>262</v>
+        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>126</v>
+        <v>246</v>
       </c>
       <c r="B126" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C126" t="s">
-        <v>184</v>
+        <v>56</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>127</v>
+        <v>247</v>
       </c>
       <c r="B127" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C127" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>128</v>
+        <v>249</v>
       </c>
       <c r="B128" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C128" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>129</v>
+        <v>250</v>
       </c>
       <c r="B129" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C129" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>130</v>
+        <v>251</v>
       </c>
       <c r="B130" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C130" t="s">
-        <v>263</v>
+        <v>248</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>131</v>
+        <v>252</v>
       </c>
       <c r="B131" t="s">
-        <v>159</v>
+        <v>241</v>
       </c>
       <c r="C131" t="s">
-        <v>198</v>
+        <v>91</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>124</v>
+        <v>243</v>
       </c>
       <c r="B132" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="C132" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>123</v>
+        <v>240</v>
       </c>
       <c r="B133" t="s">
-        <v>160</v>
+        <v>253</v>
       </c>
       <c r="C133" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>132</v>
+        <v>256</v>
       </c>
       <c r="B134" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="C134" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>133</v>
+        <v>259</v>
       </c>
       <c r="B135" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="C135" t="s">
-        <v>267</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>134</v>
+        <v>261</v>
       </c>
       <c r="B136" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="C136" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>135</v>
+        <v>262</v>
       </c>
       <c r="B137" t="s">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="C137" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>136</v>
+        <v>264</v>
       </c>
       <c r="B138" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="C138" t="s">
-        <v>261</v>
+        <v>242</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>137</v>
+        <v>266</v>
       </c>
       <c r="B139" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="C139" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>138</v>
+        <v>267</v>
       </c>
       <c r="B140" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="C140" t="s">
-        <v>238</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
-        <v>139</v>
+        <v>268</v>
       </c>
       <c r="B141" t="s">
-        <v>162</v>
+        <v>265</v>
       </c>
       <c r="C141" t="s">
-        <v>174</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="423" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="453" uniqueCount="278">
   <si>
     <t>Tên mặt hàng</t>
   </si>
@@ -41,16 +41,19 @@
     <t>Milo lớn</t>
   </si>
   <si>
+    <t xml:space="preserve">Sữa </t>
+  </si>
+  <si>
+    <t>28K/325</t>
+  </si>
+  <si>
+    <t>TH lớn</t>
+  </si>
+  <si>
     <t>Sữa</t>
   </si>
   <si>
-    <t>28K/325</t>
-  </si>
-  <si>
-    <t>TH lớn</t>
-  </si>
-  <si>
-    <t>33K/305</t>
+    <t>33K/375</t>
   </si>
   <si>
     <t>TH nhỏ</t>
@@ -101,6 +104,9 @@
     <t>Sữa chua nha đam</t>
   </si>
   <si>
+    <t>28k/4 hộp</t>
+  </si>
+  <si>
     <t>Sữa đặc Phương Nam lon</t>
   </si>
   <si>
@@ -131,651 +137,633 @@
     <t>Hương Việt</t>
   </si>
   <si>
+    <t>135k / thùng</t>
+  </si>
+  <si>
+    <t>Hưng Thịnh</t>
+  </si>
+  <si>
+    <t>Nước tương + Mắm</t>
+  </si>
+  <si>
+    <t>65k</t>
+  </si>
+  <si>
+    <t>Đệ Nhị</t>
+  </si>
+  <si>
+    <t>22k</t>
+  </si>
+  <si>
+    <t>Nam ngư</t>
+  </si>
+  <si>
+    <t>53k</t>
+  </si>
+  <si>
+    <t>Tương magi</t>
+  </si>
+  <si>
+    <t>35k</t>
+  </si>
+  <si>
+    <t>Bạc tròn</t>
+  </si>
+  <si>
+    <t>Bánh</t>
+  </si>
+  <si>
+    <t>9k</t>
+  </si>
+  <si>
+    <t>Bạc vuông</t>
+  </si>
+  <si>
+    <t>8k</t>
+  </si>
+  <si>
+    <t>Cosy</t>
+  </si>
+  <si>
+    <t>34k</t>
+  </si>
+  <si>
+    <t>Oishi lớn</t>
+  </si>
+  <si>
+    <t>Oishi nhỏ</t>
+  </si>
+  <si>
+    <t>5k</t>
+  </si>
+  <si>
+    <t>Bún khô</t>
+  </si>
+  <si>
+    <t>Mì</t>
+  </si>
+  <si>
+    <t>12k</t>
+  </si>
+  <si>
+    <t>Phở tím</t>
+  </si>
+  <si>
+    <t>6.5k</t>
+  </si>
+  <si>
+    <t>Miến</t>
+  </si>
+  <si>
+    <t>11k</t>
+  </si>
+  <si>
+    <t>Omachi</t>
+  </si>
+  <si>
+    <t>7.5k</t>
+  </si>
+  <si>
+    <t>Mì giấy</t>
+  </si>
+  <si>
+    <t>3.5k</t>
+  </si>
+  <si>
+    <t>Hảo Hảo</t>
+  </si>
+  <si>
+    <t>4.5k / 42k: 10 gói</t>
+  </si>
+  <si>
+    <t>Mì Ly</t>
+  </si>
+  <si>
+    <t>Gấu đỏ</t>
+  </si>
+  <si>
+    <t>3k / 28k: 10 gói</t>
+  </si>
+  <si>
+    <t>Mì ký</t>
+  </si>
+  <si>
+    <t>30k</t>
+  </si>
+  <si>
+    <t>Đường ký</t>
+  </si>
+  <si>
+    <t>Đường</t>
+  </si>
+  <si>
+    <t>Đường trắng cây</t>
+  </si>
+  <si>
+    <t>235k</t>
+  </si>
+  <si>
+    <t>Đường vàng cây</t>
+  </si>
+  <si>
+    <t>248k</t>
+  </si>
+  <si>
+    <t>Đường phèn</t>
+  </si>
+  <si>
+    <t>27k</t>
+  </si>
+  <si>
+    <t>Muối sấy</t>
+  </si>
+  <si>
+    <t>Muối</t>
+  </si>
+  <si>
+    <t>6k</t>
+  </si>
+  <si>
+    <t>Muối hạt</t>
+  </si>
+  <si>
+    <t>Muối bọt</t>
+  </si>
+  <si>
+    <t>Đường thốt nốt</t>
+  </si>
+  <si>
+    <t>28k</t>
+  </si>
+  <si>
+    <t>Biên Hòa</t>
+  </si>
+  <si>
+    <t>Chiên giòn Tài Ký</t>
+  </si>
+  <si>
+    <t>Bột chiên</t>
+  </si>
+  <si>
+    <t>Chiên giòn Quick</t>
+  </si>
+  <si>
+    <t>Lẩu thái</t>
+  </si>
+  <si>
+    <t>Cá 3 cô</t>
+  </si>
+  <si>
+    <t>Cá hộp</t>
+  </si>
+  <si>
+    <t>15.5k/  150k: 1 lốc</t>
+  </si>
+  <si>
+    <t>Mezan 1 lít</t>
+  </si>
+  <si>
+    <t>Dầu ăn</t>
+  </si>
+  <si>
+    <t>43k</t>
+  </si>
+  <si>
+    <t>Dầu 5 lít</t>
+  </si>
+  <si>
+    <t>163k</t>
+  </si>
+  <si>
+    <t>Nành 1 lít</t>
+  </si>
+  <si>
+    <t>54k</t>
+  </si>
+  <si>
+    <t>Nành 2 lít</t>
+  </si>
+  <si>
+    <t>108k</t>
+  </si>
+  <si>
+    <t>Suối 500ml - không lạnh</t>
+  </si>
+  <si>
+    <t>nước ngọt</t>
+  </si>
+  <si>
+    <t>Suối 500ml - lạnh</t>
+  </si>
+  <si>
+    <t>5k - 86k/thùng</t>
+  </si>
+  <si>
+    <t>Suối 1 lít</t>
+  </si>
+  <si>
+    <t>9k - 95k/thùng</t>
+  </si>
+  <si>
+    <t>Suối 5 lít</t>
+  </si>
+  <si>
+    <t>25k</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>44k/lốc - 173k/thùng</t>
+  </si>
+  <si>
+    <t>O độ</t>
+  </si>
+  <si>
+    <t>Sting chai</t>
+  </si>
+  <si>
+    <t>46k/lốc - 177k/thùng</t>
+  </si>
+  <si>
+    <t>Sting lon</t>
+  </si>
+  <si>
+    <t>46k/lốc</t>
+  </si>
+  <si>
+    <t>Coca lon</t>
+  </si>
+  <si>
+    <t>43k/lốc</t>
+  </si>
+  <si>
+    <t>247</t>
+  </si>
+  <si>
+    <t>47k/lốc</t>
+  </si>
+  <si>
+    <t>Bò thái</t>
+  </si>
+  <si>
+    <t>70k/lốc</t>
+  </si>
+  <si>
+    <t>Pepsi sữa TC</t>
+  </si>
+  <si>
+    <t>8k - 43k/lốc</t>
+  </si>
+  <si>
+    <t>Number one</t>
+  </si>
+  <si>
+    <t>Pepsi lon</t>
+  </si>
+  <si>
+    <t>42k/lốc</t>
+  </si>
+  <si>
+    <t>Sting việt quất</t>
+  </si>
+  <si>
+    <t>48k/lốc</t>
+  </si>
+  <si>
+    <t>Ô long</t>
+  </si>
+  <si>
+    <t>Mirinda thơm lon</t>
+  </si>
+  <si>
+    <t>Mirinda thơm chai</t>
+  </si>
+  <si>
+    <t>35k/lốc</t>
+  </si>
+  <si>
+    <t>Sting lớn</t>
+  </si>
+  <si>
+    <t>55k/lốc</t>
+  </si>
+  <si>
+    <t>Sài gòn xanh</t>
+  </si>
+  <si>
+    <t>bia</t>
+  </si>
+  <si>
+    <t>11k nóng, 12k lạnh, 255 thùng</t>
+  </si>
+  <si>
+    <t>Tiger bạc</t>
+  </si>
+  <si>
+    <t>388k / thùng</t>
+  </si>
+  <si>
+    <t>Én vàng &lt;</t>
+  </si>
+  <si>
+    <t>Trà + Café</t>
+  </si>
+  <si>
+    <t>10k / 52k/lốc</t>
+  </si>
+  <si>
+    <t>Én vàng &gt;</t>
+  </si>
+  <si>
+    <t>40k</t>
+  </si>
+  <si>
+    <t>Chữ I</t>
+  </si>
+  <si>
+    <t>83k</t>
+  </si>
+  <si>
+    <t>Số 1</t>
+  </si>
+  <si>
+    <t>74k</t>
+  </si>
+  <si>
+    <t>Phố</t>
+  </si>
+  <si>
+    <t>130k</t>
+  </si>
+  <si>
+    <t>Việt</t>
+  </si>
+  <si>
+    <t>120k</t>
+  </si>
+  <si>
+    <t>G7</t>
+  </si>
+  <si>
+    <t>153k</t>
+  </si>
+  <si>
+    <t>Mèo &gt;</t>
+  </si>
+  <si>
+    <t>Thuốc</t>
+  </si>
+  <si>
+    <t>24k - 225k/cây</t>
+  </si>
+  <si>
+    <t>Sài gòn bạc</t>
+  </si>
+  <si>
+    <t>15k - 138k</t>
+  </si>
+  <si>
+    <t>Zet</t>
+  </si>
+  <si>
+    <t>22K</t>
+  </si>
+  <si>
+    <t>Thăng Long</t>
+  </si>
+  <si>
+    <t>14k</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Số bạc </t>
+  </si>
+  <si>
+    <t>24k - 233k/cây</t>
+  </si>
+  <si>
+    <t>Số xanh</t>
+  </si>
+  <si>
+    <t>35k - 335k/cây</t>
+  </si>
+  <si>
+    <t>Mèo mi</t>
+  </si>
+  <si>
+    <t>15k - 142k/cây</t>
+  </si>
+  <si>
+    <t>Bastos</t>
+  </si>
+  <si>
+    <t>92k</t>
+  </si>
+  <si>
+    <t>Sài gòn vàng</t>
+  </si>
+  <si>
+    <t>14k - 126k/cây</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>Zet xanh</t>
+  </si>
+  <si>
+    <t>Số vàng</t>
+  </si>
+  <si>
+    <t>16k</t>
+  </si>
+  <si>
+    <t>Sài gòn dưa lưới</t>
+  </si>
+  <si>
+    <t>17k</t>
+  </si>
+  <si>
+    <t>Omo nước</t>
+  </si>
+  <si>
+    <t>Bột giặt + Nước giặt</t>
+  </si>
+  <si>
+    <t>168k</t>
+  </si>
+  <si>
+    <t>Omo bột 5.5kg</t>
+  </si>
+  <si>
+    <t>190k</t>
+  </si>
+  <si>
+    <t>Omo bột 3kg</t>
+  </si>
+  <si>
+    <t>115k</t>
+  </si>
+  <si>
+    <t>Omo nhỏ 380g</t>
+  </si>
+  <si>
+    <t>18k</t>
+  </si>
+  <si>
+    <t>Omo 800gr</t>
+  </si>
+  <si>
+    <t>Lix bột giặt</t>
+  </si>
+  <si>
+    <t>Lix nước giặt</t>
+  </si>
+  <si>
+    <t>95k</t>
+  </si>
+  <si>
+    <t>Susy 2kg</t>
+  </si>
+  <si>
+    <t>48k</t>
+  </si>
+  <si>
+    <t>Chai vàng</t>
+  </si>
+  <si>
+    <t>Rửa chén + Lau nhà</t>
+  </si>
+  <si>
+    <t>Túi vàng nhỏ</t>
+  </si>
+  <si>
+    <t>21k</t>
+  </si>
+  <si>
+    <t>Túi vàng lớn</t>
+  </si>
+  <si>
+    <t>72k</t>
+  </si>
+  <si>
+    <t>Túi trắng nhỏ</t>
+  </si>
+  <si>
+    <t>Vim</t>
+  </si>
+  <si>
+    <t>33k</t>
+  </si>
+  <si>
+    <t>Lau nhà</t>
+  </si>
+  <si>
+    <t>Tẩy</t>
+  </si>
+  <si>
+    <t>Lifebuoy chai tắm</t>
+  </si>
+  <si>
+    <t>Dầu gội + Sữa tắm</t>
+  </si>
+  <si>
+    <t>127k</t>
+  </si>
+  <si>
+    <t>Dê vòi + 1 mặt nạ</t>
+  </si>
+  <si>
+    <t>Romano vòi</t>
+  </si>
+  <si>
+    <t>Clear 900</t>
+  </si>
+  <si>
+    <t>160k</t>
+  </si>
+  <si>
+    <t>Clear 1kg4</t>
+  </si>
+  <si>
+    <t>225k</t>
+  </si>
+  <si>
+    <t>Dove 900</t>
+  </si>
+  <si>
+    <t>150k</t>
+  </si>
+  <si>
+    <t>Dove lọc 4</t>
+  </si>
+  <si>
+    <t>215k</t>
+  </si>
+  <si>
+    <t>Rejoi 900</t>
+  </si>
+  <si>
+    <t>Rejoi 1kg4</t>
+  </si>
+  <si>
+    <t>195k</t>
+  </si>
+  <si>
+    <t>Head 900</t>
+  </si>
+  <si>
+    <t>Head 1kg2</t>
+  </si>
+  <si>
+    <t>220k</t>
+  </si>
+  <si>
+    <t>Pantene 900</t>
+  </si>
+  <si>
+    <t>155k</t>
+  </si>
+  <si>
+    <t>Pantene 1kg2</t>
+  </si>
+  <si>
+    <t>Silk 900</t>
+  </si>
+  <si>
     <t>135k</t>
   </si>
   <si>
-    <t>Hưng Thịnh</t>
-  </si>
-  <si>
-    <t>Nước tương + Mắm</t>
-  </si>
-  <si>
-    <t>65K</t>
-  </si>
-  <si>
-    <t>A2 nhỏ</t>
-  </si>
-  <si>
-    <t>22K</t>
-  </si>
-  <si>
-    <t>Nam ngư</t>
-  </si>
-  <si>
-    <t>53K</t>
-  </si>
-  <si>
-    <t>Tương magi</t>
-  </si>
-  <si>
-    <t>35K</t>
-  </si>
-  <si>
-    <t>Bae O</t>
-  </si>
-  <si>
-    <t>Bánh</t>
-  </si>
-  <si>
-    <t>9K</t>
-  </si>
-  <si>
-    <t>Bae II</t>
-  </si>
-  <si>
-    <t>8K</t>
-  </si>
-  <si>
-    <t>Cosy</t>
-  </si>
-  <si>
-    <t>3K</t>
-  </si>
-  <si>
-    <t>Oishi lớn</t>
-  </si>
-  <si>
-    <t>Oishi nhỏ</t>
-  </si>
-  <si>
-    <t>5K</t>
-  </si>
-  <si>
-    <t>Bún khô</t>
-  </si>
-  <si>
-    <t>Mì</t>
+    <t>Silk 1kg4</t>
+  </si>
+  <si>
+    <t>Xả Thái</t>
+  </si>
+  <si>
+    <t>Dây</t>
+  </si>
+  <si>
+    <t>15k</t>
+  </si>
+  <si>
+    <t>Comfort</t>
+  </si>
+  <si>
+    <t>Romano + Xmen</t>
+  </si>
+  <si>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>Head</t>
   </si>
   <si>
     <t>12K</t>
   </si>
   <si>
-    <t>Hủ tiếu</t>
-  </si>
-  <si>
-    <t>6.5K</t>
-  </si>
-  <si>
-    <t>Miến</t>
-  </si>
-  <si>
-    <t>11K</t>
-  </si>
-  <si>
-    <t>Omachi</t>
-  </si>
-  <si>
-    <t>7.5K</t>
-  </si>
-  <si>
-    <t>Mì giấy</t>
-  </si>
-  <si>
-    <t>3.5K</t>
-  </si>
-  <si>
-    <t>Hảo Hảo</t>
-  </si>
-  <si>
-    <t>4.5K / 42K/10 gói</t>
-  </si>
-  <si>
-    <t>Mì Ly</t>
-  </si>
-  <si>
-    <t>Gấu đỏ</t>
-  </si>
-  <si>
-    <t>3K / 28K/10 gói</t>
-  </si>
-  <si>
-    <t>Mì ký</t>
-  </si>
-  <si>
-    <t>30K</t>
-  </si>
-  <si>
-    <t>Đường ký</t>
-  </si>
-  <si>
-    <t>Đường</t>
-  </si>
-  <si>
-    <t>22k</t>
-  </si>
-  <si>
-    <t>Đường trắng cây</t>
-  </si>
-  <si>
-    <t>235k</t>
-  </si>
-  <si>
-    <t>Đường vàng cây</t>
-  </si>
-  <si>
-    <t>248k</t>
-  </si>
-  <si>
-    <t>Đường phèn</t>
-  </si>
-  <si>
-    <t>27k</t>
-  </si>
-  <si>
-    <t>Muối sấy</t>
-  </si>
-  <si>
-    <t>Muối</t>
-  </si>
-  <si>
-    <t>6k</t>
-  </si>
-  <si>
-    <t>Muối hạt</t>
-  </si>
-  <si>
-    <t>Muối bọt</t>
-  </si>
-  <si>
-    <t>Đường thốt nốt</t>
-  </si>
-  <si>
-    <t>28k</t>
-  </si>
-  <si>
-    <t>Biên Hòa</t>
-  </si>
-  <si>
-    <t>Chiên giòn Tài Ký</t>
-  </si>
-  <si>
-    <t>Bột chiên</t>
-  </si>
-  <si>
-    <t>9k</t>
-  </si>
-  <si>
-    <t>Chiên giòn Quick</t>
-  </si>
-  <si>
-    <t>8k</t>
-  </si>
-  <si>
-    <t>Tẩm khoai</t>
-  </si>
-  <si>
-    <t>Cá 360</t>
-  </si>
-  <si>
-    <t>Cá hộp</t>
-  </si>
-  <si>
-    <t>15.5k/150k/lốc</t>
-  </si>
-  <si>
-    <t>Mezan 1 lít</t>
-  </si>
-  <si>
-    <t>Dầu ăn</t>
-  </si>
-  <si>
-    <t>63k</t>
-  </si>
-  <si>
-    <t>Dầu 5 lít</t>
-  </si>
-  <si>
-    <t>163k</t>
-  </si>
-  <si>
-    <t>Nành 1 lít</t>
-  </si>
-  <si>
-    <t>54k</t>
-  </si>
-  <si>
-    <t>Nành 2 lít</t>
-  </si>
-  <si>
-    <t>108k</t>
-  </si>
-  <si>
-    <t>Sữa 500ml - không lạnh</t>
-  </si>
-  <si>
-    <t>nước ngọt</t>
-  </si>
-  <si>
-    <t>4k/lốc</t>
-  </si>
-  <si>
-    <t>Sữa 500ml - lạnh</t>
-  </si>
-  <si>
-    <t>5k/lốc - 86k/thùng</t>
-  </si>
-  <si>
-    <t>Sữa 1 lít</t>
-  </si>
-  <si>
-    <t>9k - 95k/thùng</t>
-  </si>
-  <si>
-    <t>Sữa 5 lít</t>
-  </si>
-  <si>
-    <t>25k</t>
-  </si>
-  <si>
-    <t>C2</t>
-  </si>
-  <si>
-    <t>44k/lốc - 173k/thùng</t>
-  </si>
-  <si>
-    <t>O độ</t>
-  </si>
-  <si>
-    <t>Sting chai</t>
-  </si>
-  <si>
-    <t>46k/lốc - 177k/thùng</t>
-  </si>
-  <si>
-    <t>Sting lon</t>
-  </si>
-  <si>
-    <t>46k/lốc</t>
-  </si>
-  <si>
-    <t>Coca lon</t>
-  </si>
-  <si>
-    <t>43k/lốc</t>
-  </si>
-  <si>
-    <t>247</t>
-  </si>
-  <si>
-    <t>47k/lốc</t>
-  </si>
-  <si>
-    <t>Bò thái</t>
-  </si>
-  <si>
-    <t>70k/lốc</t>
-  </si>
-  <si>
-    <t>Pepsi sữa TC</t>
-  </si>
-  <si>
-    <t>8k - 143k/lốc</t>
-  </si>
-  <si>
-    <t>Number one</t>
-  </si>
-  <si>
-    <t>Pepsi lon</t>
-  </si>
-  <si>
-    <t>42k/lốc</t>
-  </si>
-  <si>
-    <t>Sting lựu quất</t>
-  </si>
-  <si>
-    <t>48k/lốc</t>
-  </si>
-  <si>
-    <t>Ô long</t>
-  </si>
-  <si>
-    <t>Mirinda thường lon</t>
-  </si>
-  <si>
-    <t>Mirinda thường chai</t>
-  </si>
-  <si>
-    <t>35k/lốc</t>
-  </si>
-  <si>
-    <t>55k/lốc</t>
-  </si>
-  <si>
-    <t>Sài gòn xanh</t>
-  </si>
-  <si>
-    <t>bia</t>
-  </si>
-  <si>
-    <t>11k nóng, 12k lạnh</t>
-  </si>
-  <si>
-    <t>Tiger bạc</t>
-  </si>
-  <si>
-    <t>388k / thùng</t>
-  </si>
-  <si>
-    <t>Én vàng &lt;</t>
-  </si>
-  <si>
-    <t>Trà + Café</t>
-  </si>
-  <si>
-    <t>10k / 152k/lốc</t>
-  </si>
-  <si>
-    <t>Én vàng 7</t>
-  </si>
-  <si>
-    <t>40k</t>
-  </si>
-  <si>
-    <t>Chữ I</t>
-  </si>
-  <si>
-    <t>83k</t>
-  </si>
-  <si>
-    <t>Số 1</t>
-  </si>
-  <si>
-    <t>84k</t>
-  </si>
-  <si>
-    <t>Phố</t>
-  </si>
-  <si>
-    <t>130k</t>
-  </si>
-  <si>
-    <t>Việt</t>
-  </si>
-  <si>
-    <t>120k</t>
-  </si>
-  <si>
-    <t>G7</t>
-  </si>
-  <si>
-    <t>153k</t>
-  </si>
-  <si>
-    <t>Mèo &gt; 2h</t>
-  </si>
-  <si>
-    <t>Thuốc</t>
-  </si>
-  <si>
-    <t>225k</t>
-  </si>
-  <si>
-    <t>Sài gòn bạc</t>
-  </si>
-  <si>
-    <t>188k</t>
-  </si>
-  <si>
-    <t>Zet</t>
-  </si>
-  <si>
-    <t>Thăng Long</t>
-  </si>
-  <si>
-    <t>14k</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Số bạc </t>
-  </si>
-  <si>
-    <t>24k - 233k/cây</t>
-  </si>
-  <si>
-    <t>Số xanh</t>
-  </si>
-  <si>
-    <t>35k - 335k/cây</t>
-  </si>
-  <si>
-    <t>Mèo mi</t>
-  </si>
-  <si>
-    <t>15k - 142k/cây</t>
-  </si>
-  <si>
-    <t>Bastos</t>
-  </si>
-  <si>
-    <t>92k</t>
-  </si>
-  <si>
-    <t>Sài gòn vàng</t>
-  </si>
-  <si>
-    <t>14k - 126k</t>
-  </si>
-  <si>
-    <t>R</t>
-  </si>
-  <si>
-    <t>Zet xanh</t>
-  </si>
-  <si>
-    <t>Số vàng</t>
-  </si>
-  <si>
-    <t>16k</t>
-  </si>
-  <si>
-    <t>Sài gòn dưa lưới</t>
-  </si>
-  <si>
-    <t>17k</t>
-  </si>
-  <si>
-    <t>Omo nước</t>
-  </si>
-  <si>
-    <t>Bột giặt + Nước giặt</t>
-  </si>
-  <si>
-    <t>168K</t>
-  </si>
-  <si>
-    <t>Omo bột 5.5kg</t>
-  </si>
-  <si>
-    <t>130K</t>
-  </si>
-  <si>
-    <t>Omo bột 3kg</t>
-  </si>
-  <si>
-    <t>115K</t>
-  </si>
-  <si>
-    <t>Omo nhỏ 380g</t>
-  </si>
-  <si>
-    <t>18K</t>
-  </si>
-  <si>
-    <t>Omo 800gr</t>
-  </si>
-  <si>
-    <t>34K</t>
-  </si>
-  <si>
-    <t>Lix bột giặt</t>
-  </si>
-  <si>
-    <t>Lix nước giặt</t>
-  </si>
-  <si>
-    <t>95K</t>
-  </si>
-  <si>
-    <t>Suzy 2kg</t>
-  </si>
-  <si>
-    <t>48K</t>
-  </si>
-  <si>
-    <t>Chai vàng</t>
-  </si>
-  <si>
-    <t>Rửa chén + Lau nhà</t>
-  </si>
-  <si>
-    <t>25K</t>
-  </si>
-  <si>
-    <t>Túi vàng nhỏ</t>
-  </si>
-  <si>
-    <t>21K</t>
-  </si>
-  <si>
-    <t>Túi vàng lớn</t>
-  </si>
-  <si>
-    <t>72K</t>
-  </si>
-  <si>
-    <t>Túi trắng</t>
-  </si>
-  <si>
-    <t>Vim</t>
-  </si>
-  <si>
-    <t>33K</t>
-  </si>
-  <si>
-    <t>Lau nhà</t>
-  </si>
-  <si>
-    <t>28K</t>
-  </si>
-  <si>
-    <t>Tẩy</t>
-  </si>
-  <si>
-    <t>Lifebuoy chai trên</t>
-  </si>
-  <si>
-    <t>Dầu gội + Sữa tắm</t>
-  </si>
-  <si>
-    <t>127k</t>
-  </si>
-  <si>
-    <t>Dưới + sữa tắm mát xa</t>
-  </si>
-  <si>
-    <t>65k</t>
-  </si>
-  <si>
-    <t>Romano vòi</t>
-  </si>
-  <si>
-    <t>115k</t>
-  </si>
-  <si>
-    <t>Clear 900</t>
-  </si>
-  <si>
-    <t>160k</t>
-  </si>
-  <si>
-    <t>Clear lọc 4</t>
-  </si>
-  <si>
-    <t>Dove 900</t>
-  </si>
-  <si>
-    <t>150k</t>
-  </si>
-  <si>
-    <t>Dove lọc 4</t>
-  </si>
-  <si>
-    <t>215k</t>
-  </si>
-  <si>
-    <t>Rejo 900</t>
-  </si>
-  <si>
-    <t>Rejo lọc 2</t>
-  </si>
-  <si>
-    <t>195k</t>
-  </si>
-  <si>
-    <t>Head 900</t>
-  </si>
-  <si>
-    <t>Head lọc 2</t>
-  </si>
-  <si>
-    <t>220k</t>
-  </si>
-  <si>
-    <t>Pantene 900</t>
-  </si>
-  <si>
-    <t>155k</t>
-  </si>
-  <si>
-    <t>Pantene lọc 2</t>
-  </si>
-  <si>
-    <t>Silk 900</t>
-  </si>
-  <si>
-    <t>Silk lọc 4</t>
-  </si>
-  <si>
-    <t>190k</t>
-  </si>
-  <si>
-    <t>Xả Thái</t>
-  </si>
-  <si>
-    <t>Dầu xả</t>
-  </si>
-  <si>
-    <t>15k</t>
-  </si>
-  <si>
-    <t>Comfort</t>
-  </si>
-  <si>
-    <t>Romano + Xmen</t>
-  </si>
-  <si>
-    <t>10k</t>
-  </si>
-  <si>
-    <t>Head</t>
-  </si>
-  <si>
     <t>Pantene</t>
   </si>
   <si>
-    <t>12k</t>
-  </si>
-  <si>
     <t>Clear</t>
   </si>
   <si>
@@ -785,7 +773,7 @@
     <t>Dove</t>
   </si>
   <si>
-    <t>Rejoice</t>
+    <t>Rejoi</t>
   </si>
   <si>
     <t>Xả túi</t>
@@ -834,6 +822,45 @@
   </si>
   <si>
     <t>Diana</t>
+  </si>
+  <si>
+    <t>Dấm</t>
+  </si>
+  <si>
+    <t>Hạt nêm + Tương ớt + Dầu hào</t>
+  </si>
+  <si>
+    <t>Hạt nêm &lt;</t>
+  </si>
+  <si>
+    <t>Hạt nêm &gt;</t>
+  </si>
+  <si>
+    <t>62k</t>
+  </si>
+  <si>
+    <t>Sa tế</t>
+  </si>
+  <si>
+    <t>Bột ngọt 1 kg</t>
+  </si>
+  <si>
+    <t>Bột ngọt 454</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dầu hào </t>
+  </si>
+  <si>
+    <t>Tương ớt + cà 2kg1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tương đen </t>
+  </si>
+  <si>
+    <t>42k</t>
+  </si>
+  <si>
+    <t>Tương ớt + cà chinsu</t>
   </si>
 </sst>
 </file>
@@ -846,7 +873,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -856,13 +883,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1332,148 +1352,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1835,17 +1855,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C141"/>
+  <dimension ref="A1:C151"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A105" workbookViewId="0">
+      <selection activeCell="L105" sqref="L105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="2"/>
   <cols>
     <col min="1" max="1" width="31.0462962962963" customWidth="1"/>
-    <col min="2" max="2" width="25.8981481481481" customWidth="1"/>
-    <col min="3" max="3" width="14.6203703703704" customWidth="1"/>
+    <col min="2" max="2" width="28.6944444444444" customWidth="1"/>
+    <col min="3" max="3" width="26.3703703703704" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1875,461 +1895,461 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B4" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="13" spans="1:3">
       <c r="A13" t="s">
+        <v>29</v>
+      </c>
+      <c r="B13" t="s">
         <v>27</v>
       </c>
-      <c r="B13" t="s">
-        <v>25</v>
-      </c>
       <c r="C13" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:3">
       <c r="A14" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3">
       <c r="A15" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C15" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="16" spans="1:3">
       <c r="A16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B16" t="s">
         <v>33</v>
       </c>
-      <c r="B16" t="s">
-        <v>31</v>
-      </c>
       <c r="C16" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:3">
       <c r="A17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B17" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:3">
       <c r="A18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="B18" t="s">
-        <v>36</v>
-      </c>
       <c r="C18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:3">
       <c r="A19" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B20" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:3">
       <c r="A21" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C21" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:3">
       <c r="A22" t="s">
+        <v>49</v>
+      </c>
+      <c r="B22" t="s">
         <v>47</v>
       </c>
-      <c r="B22" t="s">
-        <v>45</v>
-      </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="23" spans="1:3">
       <c r="A23" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B23" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C23" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:3">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B24" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C24" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="25" spans="1:3">
       <c r="A25" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C25" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" spans="1:3">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C26" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:3">
       <c r="A27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B27" t="s">
         <v>57</v>
       </c>
-      <c r="B27" t="s">
-        <v>55</v>
-      </c>
       <c r="C27" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" spans="1:3">
       <c r="A28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C28" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="1:3">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C29" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="1:3">
       <c r="A30" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C30" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="31" spans="1:3">
       <c r="A31" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C31" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:3">
       <c r="A32" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B32" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C32" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B33" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B34" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C35" t="s">
-        <v>74</v>
+        <v>41</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" t="s">
+        <v>76</v>
+      </c>
+      <c r="B36" t="s">
         <v>75</v>
       </c>
-      <c r="B36" t="s">
-        <v>73</v>
-      </c>
       <c r="C36" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="B37" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C37" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:3">
       <c r="A38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B38" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C38" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:3">
       <c r="A39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B39" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C39" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B40" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C40" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B41" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C41" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="42" spans="1:3">
       <c r="A42" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B42" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" t="s">
+        <v>89</v>
+      </c>
+      <c r="B43" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" t="s">
         <v>88</v>
-      </c>
-      <c r="B43" t="s">
-        <v>82</v>
-      </c>
-      <c r="C43" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B44" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C44" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2337,417 +2357,417 @@
         <v>92</v>
       </c>
       <c r="B45" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C45" t="s">
-        <v>93</v>
+        <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:3">
       <c r="A46" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B46" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C46" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:3">
       <c r="A47" t="s">
+        <v>94</v>
+      </c>
+      <c r="B47" t="s">
         <v>95</v>
       </c>
-      <c r="B47" t="s">
+      <c r="C47" t="s">
         <v>96</v>
-      </c>
-      <c r="C47" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="48" spans="1:3">
       <c r="A48" t="s">
+        <v>97</v>
+      </c>
+      <c r="B48" t="s">
         <v>98</v>
       </c>
-      <c r="B48" t="s">
+      <c r="C48" t="s">
         <v>99</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
       </c>
     </row>
     <row r="49" spans="1:3">
       <c r="A49" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" t="s">
+        <v>98</v>
+      </c>
+      <c r="C49" t="s">
         <v>101</v>
-      </c>
-      <c r="B49" t="s">
-        <v>99</v>
-      </c>
-      <c r="C49" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" t="s">
+        <v>102</v>
+      </c>
+      <c r="B50" t="s">
+        <v>98</v>
+      </c>
+      <c r="C50" t="s">
         <v>103</v>
-      </c>
-      <c r="B50" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="51" spans="1:3">
       <c r="A51" t="s">
+        <v>104</v>
+      </c>
+      <c r="B51" t="s">
+        <v>98</v>
+      </c>
+      <c r="C51" t="s">
         <v>105</v>
-      </c>
-      <c r="B51" t="s">
-        <v>99</v>
-      </c>
-      <c r="C51" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="52" spans="1:3">
       <c r="A52" t="s">
+        <v>106</v>
+      </c>
+      <c r="B52" t="s">
         <v>107</v>
       </c>
-      <c r="B52" t="s">
-        <v>108</v>
-      </c>
       <c r="C52" t="s">
-        <v>109</v>
+        <v>18</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C53" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B54" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C54" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B55" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C55" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B56" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C56" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B57" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C57" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B58" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C58" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="59" spans="1:3">
       <c r="A59" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B59" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C59" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C60" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B61" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C61" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B62" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C62" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B63" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C63" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B64" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C64" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B65" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C65" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="66" spans="1:3">
       <c r="A66" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B66" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C66" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="67" spans="1:3">
       <c r="A67" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B67" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C67" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="68" spans="1:3">
       <c r="A68" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B68" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C68" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="69" spans="1:3">
       <c r="A69" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B69" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C69" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="70" spans="1:3">
       <c r="A70" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="B70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="71" spans="1:3">
       <c r="A71" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" t="s">
         <v>141</v>
       </c>
-      <c r="B71" t="s">
+      <c r="C71" t="s">
         <v>142</v>
-      </c>
-      <c r="C71" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" t="s">
+        <v>143</v>
+      </c>
+      <c r="B72" t="s">
+        <v>141</v>
+      </c>
+      <c r="C72" t="s">
         <v>144</v>
-      </c>
-      <c r="B72" t="s">
-        <v>142</v>
-      </c>
-      <c r="C72" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="73" spans="1:3">
       <c r="A73" t="s">
+        <v>145</v>
+      </c>
+      <c r="B73" t="s">
         <v>146</v>
       </c>
-      <c r="B73" t="s">
+      <c r="C73" t="s">
         <v>147</v>
-      </c>
-      <c r="C73" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" t="s">
+        <v>146</v>
+      </c>
+      <c r="C74" t="s">
         <v>149</v>
-      </c>
-      <c r="B74" t="s">
-        <v>147</v>
-      </c>
-      <c r="C74" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" t="s">
+        <v>150</v>
+      </c>
+      <c r="B75" t="s">
+        <v>146</v>
+      </c>
+      <c r="C75" t="s">
         <v>151</v>
-      </c>
-      <c r="B75" t="s">
-        <v>147</v>
-      </c>
-      <c r="C75" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" t="s">
+        <v>152</v>
+      </c>
+      <c r="B76" t="s">
+        <v>146</v>
+      </c>
+      <c r="C76" t="s">
         <v>153</v>
-      </c>
-      <c r="B76" t="s">
-        <v>147</v>
-      </c>
-      <c r="C76" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" t="s">
+        <v>146</v>
+      </c>
+      <c r="C77" t="s">
         <v>155</v>
-      </c>
-      <c r="B77" t="s">
-        <v>147</v>
-      </c>
-      <c r="C77" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" t="s">
+        <v>156</v>
+      </c>
+      <c r="B78" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" t="s">
         <v>157</v>
-      </c>
-      <c r="B78" t="s">
-        <v>147</v>
-      </c>
-      <c r="C78" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" t="s">
+        <v>158</v>
+      </c>
+      <c r="B79" t="s">
+        <v>146</v>
+      </c>
+      <c r="C79" t="s">
         <v>159</v>
-      </c>
-      <c r="B79" t="s">
-        <v>147</v>
-      </c>
-      <c r="C79" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" t="s">
+        <v>160</v>
+      </c>
+      <c r="B80" t="s">
         <v>161</v>
       </c>
-      <c r="B80" t="s">
+      <c r="C80" t="s">
         <v>162</v>
-      </c>
-      <c r="C80" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" t="s">
+        <v>163</v>
+      </c>
+      <c r="B81" t="s">
+        <v>161</v>
+      </c>
+      <c r="C81" t="s">
         <v>164</v>
-      </c>
-      <c r="B81" t="s">
-        <v>162</v>
-      </c>
-      <c r="C81" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" t="s">
+        <v>165</v>
+      </c>
+      <c r="B82" t="s">
+        <v>161</v>
+      </c>
+      <c r="C82" t="s">
         <v>166</v>
-      </c>
-      <c r="B82" t="s">
-        <v>162</v>
-      </c>
-      <c r="C82" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:3">
@@ -2755,7 +2775,7 @@
         <v>167</v>
       </c>
       <c r="B83" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C83" t="s">
         <v>168</v>
@@ -2766,7 +2786,7 @@
         <v>169</v>
       </c>
       <c r="B84" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C84" t="s">
         <v>170</v>
@@ -2777,7 +2797,7 @@
         <v>171</v>
       </c>
       <c r="B85" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C85" t="s">
         <v>172</v>
@@ -2788,7 +2808,7 @@
         <v>173</v>
       </c>
       <c r="B86" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C86" t="s">
         <v>174</v>
@@ -2799,7 +2819,7 @@
         <v>175</v>
       </c>
       <c r="B87" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C87" t="s">
         <v>176</v>
@@ -2810,7 +2830,7 @@
         <v>177</v>
       </c>
       <c r="B88" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C88" t="s">
         <v>178</v>
@@ -2821,10 +2841,10 @@
         <v>179</v>
       </c>
       <c r="B89" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C89" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="90" spans="1:3">
@@ -2832,10 +2852,10 @@
         <v>180</v>
       </c>
       <c r="B90" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C90" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="91" spans="1:3">
@@ -2843,7 +2863,7 @@
         <v>181</v>
       </c>
       <c r="B91" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C91" t="s">
         <v>182</v>
@@ -2854,7 +2874,7 @@
         <v>183</v>
       </c>
       <c r="B92" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C92" t="s">
         <v>184</v>
@@ -2912,301 +2932,301 @@
         <v>186</v>
       </c>
       <c r="C97" t="s">
-        <v>195</v>
+        <v>52</v>
       </c>
     </row>
     <row r="98" spans="1:3">
       <c r="A98" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B98" t="s">
         <v>186</v>
       </c>
       <c r="C98" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B99" t="s">
         <v>186</v>
       </c>
       <c r="C99" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B100" t="s">
         <v>186</v>
       </c>
       <c r="C100" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" t="s">
         <v>201</v>
       </c>
-      <c r="B101" t="s">
-        <v>202</v>
-      </c>
       <c r="C101" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B102" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C102" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B103" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C103" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B104" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C104" t="s">
-        <v>203</v>
+        <v>113</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B105" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C105" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B106" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C106" t="s">
-        <v>212</v>
+        <v>88</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="B107" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C107" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B109" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C109" t="s">
-        <v>218</v>
+        <v>39</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B110" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C110" t="s">
-        <v>220</v>
+        <v>191</v>
       </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="B111" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C111" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="B112" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C112" t="s">
-        <v>163</v>
+        <v>219</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="B113" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C113" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="B114" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C114" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B115" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C115" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="B116" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C116" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="B117" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C117" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B118" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C118" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B119" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C119" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B120" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C120" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="B121" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C121" t="s">
-        <v>34</v>
+        <v>234</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="B122" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C122" t="s">
-        <v>239</v>
+        <v>189</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B123" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C123" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B124" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C124" t="s">
         <v>182</v>
@@ -3214,164 +3234,164 @@
     </row>
     <row r="125" spans="1:3">
       <c r="A125" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B125" t="s">
+        <v>237</v>
+      </c>
+      <c r="C125" t="s">
         <v>241</v>
-      </c>
-      <c r="C125" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="B126" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C126" t="s">
-        <v>56</v>
+        <v>243</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B127" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C127" t="s">
-        <v>248</v>
+        <v>58</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="B128" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C128" t="s">
-        <v>248</v>
+        <v>58</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="B129" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C129" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="B130" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C130" t="s">
-        <v>248</v>
+        <v>58</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="B131" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="C131" t="s">
-        <v>91</v>
+        <v>48</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B132" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C132" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="B133" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="C133" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B134" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C134" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B135" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C135" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
       <c r="B136" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C136" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B137" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C137" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C138" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="B139" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C139" t="s">
         <v>184</v>
@@ -3379,10 +3399,10 @@
     </row>
     <row r="140" spans="1:3">
       <c r="A140" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="B140" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="C140" t="s">
         <v>184</v>
@@ -3390,13 +3410,123 @@
     </row>
     <row r="141" spans="1:3">
       <c r="A141" t="s">
+        <v>264</v>
+      </c>
+      <c r="B141" t="s">
+        <v>261</v>
+      </c>
+      <c r="C141" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" t="s">
+        <v>265</v>
+      </c>
+      <c r="B142" t="s">
+        <v>266</v>
+      </c>
+      <c r="C142" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" t="s">
+        <v>267</v>
+      </c>
+      <c r="B143" t="s">
+        <v>266</v>
+      </c>
+      <c r="C143" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" t="s">
         <v>268</v>
       </c>
-      <c r="B141" t="s">
-        <v>265</v>
-      </c>
-      <c r="C141" t="s">
-        <v>32</v>
+      <c r="B144" t="s">
+        <v>266</v>
+      </c>
+      <c r="C144" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" t="s">
+        <v>270</v>
+      </c>
+      <c r="B145" t="s">
+        <v>266</v>
+      </c>
+      <c r="C145" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3">
+      <c r="A146" t="s">
+        <v>271</v>
+      </c>
+      <c r="B146" t="s">
+        <v>266</v>
+      </c>
+      <c r="C146" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
+      <c r="A147" t="s">
+        <v>272</v>
+      </c>
+      <c r="B147" t="s">
+        <v>266</v>
+      </c>
+      <c r="C147" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" t="s">
+        <v>273</v>
+      </c>
+      <c r="B148" t="s">
+        <v>266</v>
+      </c>
+      <c r="C148" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" t="s">
+        <v>274</v>
+      </c>
+      <c r="B149" t="s">
+        <v>266</v>
+      </c>
+      <c r="C149" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" t="s">
+        <v>275</v>
+      </c>
+      <c r="B150" t="s">
+        <v>266</v>
+      </c>
+      <c r="C150" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" t="s">
+        <v>277</v>
+      </c>
+      <c r="B151" t="s">
+        <v>266</v>
+      </c>
+      <c r="C151" t="s">
+        <v>182</v>
       </c>
     </row>
   </sheetData>
